--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uu120885/Desktop/kadai_map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koh/Desktop/g2g/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="460" windowWidth="24960" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>進学TOP</t>
     <phoneticPr fontId="1"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>TOP(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50p</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -227,9 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -890,7 +895,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -919,8 +924,8 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>50</v>
+      <c r="A5" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">

--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -633,6 +633,12 @@
   </si>
   <si>
     <t xml:space="preserve">TOP(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool</t>
   </si>
 </sst>
 </file>
@@ -761,9 +767,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.6333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.3962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,8 +941,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,15 +1158,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2259259259259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,6 +1208,16 @@
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" state="visible" r:id="rId2"/>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">TOP(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">TOP(3)</t>
+    <t xml:space="preserve">ALL()</t>
   </si>
   <si>
     <t xml:space="preserve">cool</t>
@@ -767,11 +767,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.3962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.362962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.2592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,9 +941,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,13 +1161,13 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" state="visible" r:id="rId2"/>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">ALL()</t>
   </si>
   <si>
-    <t xml:space="preserve">cool</t>
+    <t xml:space="preserve">Cool(0,10)</t>
   </si>
 </sst>
 </file>
@@ -767,11 +767,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.362962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.2592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.2185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,9 +941,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,13 +1161,13 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,7 +1215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>43</v>
       </c>

--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -632,13 +632,16 @@
     <t xml:space="preserve">salmon</t>
   </si>
   <si>
+    <t xml:space="preserve">ALL()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cool(0,10)</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOP(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">ALL()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cool(0,10)</t>
+    <t xml:space="preserve">RGB(0,0,20)</t>
   </si>
 </sst>
 </file>
@@ -767,11 +770,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.2185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.1777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,9 +944,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.337037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,16 +1161,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,24 +1203,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <r>
       <rPr>
@@ -624,6 +624,9 @@
   </si>
   <si>
     <t xml:space="preserve">branch_PAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGB(255,0,0,2)</t>
   </si>
   <si>
     <t xml:space="preserve">20per</t>
@@ -770,11 +773,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.1777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.237037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,9 +947,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,13 +1167,13 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,9 +1181,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,34 +1198,35 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -626,9 +626,6 @@
     <t xml:space="preserve">branch_PAGE</t>
   </si>
   <si>
-    <t xml:space="preserve">RGB(255,0,0,2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">20per</t>
   </si>
   <si>
@@ -638,7 +635,7 @@
     <t xml:space="preserve">ALL()</t>
   </si>
   <si>
-    <t xml:space="preserve">Cool(0,10)</t>
+    <t xml:space="preserve">cool(0,10)</t>
   </si>
   <si>
     <t xml:space="preserve">TOP(1)</t>
@@ -773,11 +770,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.237037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4814814814815"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.2962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,9 +944,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9074074074074"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,13 +1164,13 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,7 +1180,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,12 +1195,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1211,22 +1208,22 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>

--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <r>
       <rPr>
@@ -1064,6 +1064,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">更に，独自の関数を追加することができます． その方法は</t>
     </r>
@@ -1083,137 +1084,34 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を参照してください．</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">paramC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_TOP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">日本語</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">test</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">それぞれの項目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">_TOP</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C_TOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_detail_page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">にホ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">語</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">test</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">list_view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_PAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_NEXT_PAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_NEXT_PAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_PAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">branch_PAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINMAX(10,12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTTOM(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">safe</t>
+    <t xml:space="preserve">top_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP(1)</t>
   </si>
   <si>
     <t xml:space="preserve">mycolor</t>
@@ -1229,7 +1127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1258,12 +1156,6 @@
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1370,7 +1262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1448,10 +1340,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1538,17 +1426,17 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="87.6074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="92.2111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,7 +1685,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1817,20 +1705,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1840,190 +1728,71 @@
       <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>7.39797910860283</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>43069.5780891748</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>99409.7030872593</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>66741.3813747518</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>85414.5011552211</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="B6" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>95504.4552216353</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="C7" s="0" t="n">
-        <v>82347.4147525195</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>86705.0318124451</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>56451.0038995362</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>51592.5269646389</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>10575.3192144486</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>79581.6639598</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>44121.2645308727</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>29226.7610411534</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>12</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2042,47 +1811,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2109,15 +1868,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/sample/data.xlsx
+++ b/sample/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -1096,16 +1096,10 @@
     <t xml:space="preserve">auto_make</t>
   </si>
   <si>
-    <t xml:space="preserve">graph</t>
-  </si>
-  <si>
     <t xml:space="preserve">easy</t>
   </si>
   <si>
-    <t xml:space="preserve">make</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tool</t>
+    <t xml:space="preserve">graph_tool</t>
   </si>
   <si>
     <t xml:space="preserve">default</t>
@@ -1432,11 +1426,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="92.2111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.562962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,17 +1699,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,45 +1750,25 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1813,14 +1787,14 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.5851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,13 +1804,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,15 +1842,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
